--- a/data/mock/csv/ofertas.xlsx
+++ b/data/mock/csv/ofertas.xlsx
@@ -158,7 +158,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3742371" cy="953466"/>
+    <xdr:ext cx="3742371" cy="3192412"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="1 CuadroTexto"/>
@@ -167,7 +167,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9677400" y="733425"/>
-          <a:ext cx="3742371" cy="953466"/>
+          <a:ext cx="3742371" cy="3192412"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -224,6 +224,100 @@
           <a:r>
             <a:rPr lang="es-AR" sz="1100" baseline="0"/>
             <a:t>con este esquema entran 22 ofertas para 36 avisos</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-AR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t>de las 22 postuladas por aviso</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t>- aprobarse 16 avisos</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t>- desaprobar 6 avisos</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-AR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t>de los 16 aprobadas </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t>- aceptar  10 avisos</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t>- rechazar 2 avisos </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- cancelar 2 avisos </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-AR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-AR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t>no puede ser random</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t>se hará en esa secuencia</a:t>
           </a:r>
           <a:endParaRPr lang="es-AR" sz="1100"/>
         </a:p>
@@ -535,9 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
